--- a/Attendance/2022/May/5-5-2022.xlsx
+++ b/Attendance/2022/May/5-5-2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>ATTENDANCE</t>
         </is>
       </c>
     </row>
@@ -459,19 +459,71 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Anupam</t>
-        </is>
+      <c r="B2" t="n">
+        <v>20070122006</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23:13:59</t>
+          <t>Aditya Desai</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Entered</t>
+          <t>PRESENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20070122011</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Aakashkumar Holikatti</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>20070122021</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Antriksh Sharma</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ABSENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20070122022</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Anupam Muralidharan</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PRESENT</t>
         </is>
       </c>
     </row>
